--- a/classifiers/Classifiers.xlsx
+++ b/classifiers/Classifiers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>Color space</t>
   </si>
@@ -92,7 +92,25 @@
     <t>No.</t>
   </si>
   <si>
-    <t>YCbCr</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>soso</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>YCrCb</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -116,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -148,17 +166,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:Q12"/>
+  <dimension ref="B6:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +529,7 @@
     <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
@@ -516,7 +547,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
@@ -565,8 +596,11 @@
       <c r="Q7" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="R7" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -594,7 +628,9 @@
       <c r="J8" s="2">
         <v>2</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="L8" s="2" t="b">
         <v>1</v>
       </c>
@@ -613,13 +649,16 @@
       <c r="Q8" s="2">
         <v>1.5</v>
       </c>
+      <c r="R8" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -642,7 +681,9 @@
       <c r="J9" s="2">
         <v>2</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="L9" s="2" t="b">
         <v>1</v>
       </c>
@@ -661,8 +702,11 @@
       <c r="Q9" s="2">
         <v>1.5</v>
       </c>
+      <c r="R9" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -690,7 +734,9 @@
       <c r="J10" s="2">
         <v>2</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="L10" s="2" t="b">
         <v>1</v>
       </c>
@@ -709,8 +755,11 @@
       <c r="Q10" s="2">
         <v>1.5</v>
       </c>
+      <c r="R10" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -738,7 +787,9 @@
       <c r="J11" s="2">
         <v>2</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="L11" s="2" t="b">
         <v>1</v>
       </c>
@@ -757,8 +808,11 @@
       <c r="Q11" s="2">
         <v>1.5</v>
       </c>
+      <c r="R11" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>5</v>
       </c>
@@ -786,7 +840,9 @@
       <c r="J12" s="2">
         <v>2</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="L12" s="2" t="b">
         <v>1</v>
       </c>
@@ -804,6 +860,168 @@
       </c>
       <c r="Q12" s="2">
         <v>1.5</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="2">
+        <v>9</v>
+      </c>
+      <c r="I13" s="2">
+        <v>8</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>400</v>
+      </c>
+      <c r="P13" s="2">
+        <v>650</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2">
+        <v>32</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="2">
+        <v>9</v>
+      </c>
+      <c r="I14" s="2">
+        <v>8</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>400</v>
+      </c>
+      <c r="P14" s="2">
+        <v>650</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2">
+        <v>32</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="2">
+        <v>9</v>
+      </c>
+      <c r="I15" s="2">
+        <v>8</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>400</v>
+      </c>
+      <c r="P15" s="2">
+        <v>650</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
